--- a/03.crawler/02.Dorman/file/2.url/crawler_2.xlsx
+++ b/03.crawler/02.Dorman/file/2.url/crawler_2.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17619-264-024.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32211-264-012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32211-264-012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2022-264-118.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2022-264-118.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17619-264-024.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79076-264-331.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82083-264-377.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82083-264-377.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79076-264-331.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23825-264-205.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1950-264-026.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72844-264-441.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23825-264-205.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82424-264-480.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67169-264-081.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67169-264-081.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46147-264-039.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46147-264-039.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-81088-264-375.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1950-264-026.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72844-264-441.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-81088-264-375.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82424-264-480.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133855-264-294.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133909-264-580.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133909-264-580.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133855-264-294.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-124831-264-5097.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106439-264-5002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106439-264-5002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-124831-264-5097.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102928-264-5104.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-76294-265-847.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-76294-265-847.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102928-264-5104.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-127963-264-5055.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106596-264-563.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106596-264-563.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104937-264-860.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104937-264-860.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-127963-264-5055.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32212-264-020.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27144-264-002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65749-264-050.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1850-264-102.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49353-264-051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2852-264-220.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19651-264-021.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32212-264-020.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65179-264-072.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17620-264-108.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27144-264-002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21743-264-109.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1851-264-103.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19651-264-021.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84547-264-136.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65749-264-050.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65058-264-079.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3051-264-120.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1850-264-102.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49353-264-051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2852-264-220.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65179-264-072.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32214-264-209.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84547-264-136.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17620-264-108.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3052-264-121.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21743-264-109.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65058-264-079.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3051-264-120.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1851-264-103.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15498-264-202.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15499-264-208.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1952-264-203.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-66793-264-244.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3052-264-121.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15498-264-202.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-66793-264-244.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1952-264-203.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15499-264-208.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32214-264-209.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82061-264-372.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49968-264-315.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74064-264-379.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72746-264-344.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23826-264-402.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82061-264-372.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17623-264-403.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74482-264-345.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74812-264-351.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2025-264-309.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49968-264-315.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74812-264-351.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49975-264-321.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49249-264-415.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74482-264-345.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49976-264-320.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2025-264-309.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77887-264-384.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77887-264-384.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72778-264-444.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49976-264-320.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72776-264-445.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72746-264-344.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49966-264-414.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73444-264-436.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73259-264-421.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72778-264-444.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73444-264-436.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72776-264-445.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73293-264-437.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77892-264-466.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74064-264-379.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49966-264-414.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32218-264-502.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49249-264-415.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49975-264-321.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-83965-264-515.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74194-264-451.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74194-264-451.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17623-264-403.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73259-264-421.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65061-264-508.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65061-264-508.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-44153-264-503.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2971-264-408.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23826-264-402.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72382-264-550.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85364-264-520.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85959-264-537.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-83965-264-515.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73293-264-437.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77892-264-466.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32218-264-502.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72382-264-550.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-44153-264-503.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80535-264-852.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85364-264-520.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23828-264-800.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80535-264-852.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53367-264-801.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23828-264-800.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85959-264-537.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53367-264-801.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49465-264-716.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49465-264-716.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104165-264-5054.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104165-264-5054.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45259-264-032.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50224-264-040.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25898-264-011.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46823-264-132.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1847-264-004.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54535-264-133.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17618-264-005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65325-264-062.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54535-264-133.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45259-264-032.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19652-264-027.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19652-264-027.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65325-264-062.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1847-264-004.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65063-264-163.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17618-264-005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19654-264-110.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65044-264-080.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46823-264-132.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1849-264-038.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65044-264-080.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25898-264-011.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-76765-264-127.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65063-264-163.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64694-264-139.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-76765-264-127.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1849-264-038.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65755-264-138.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50224-264-040.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46830-264-232.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65755-264-138.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53561-264-233.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46830-264-232.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19654-264-110.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65701-264-240.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65701-264-240.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26985-264-227.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73626-264-241.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53561-264-233.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64694-264-139.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73626-264-241.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77769-264-356.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77789-264-357.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65114-264-327.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26987-264-305.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77789-264-357.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77769-264-356.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82082-264-374.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73372-264-362.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2969-264-304.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65045-264-326.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26987-264-305.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75519-264-341.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75507-264-340.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78044-264-363.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73372-264-362.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65114-264-327.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65045-264-326.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2969-264-304.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75519-264-341.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75507-264-340.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78044-264-363.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73209-264-333.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73209-264-333.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53445-264-605.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26985-264-227.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86461-264-533.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73820-264-427.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82505-264-469.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77883-264-381.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21746-264-604.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19659-264-405.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49841-264-718.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64698-264-410.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49843-264-725.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49845-264-411.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80561-264-468.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-83123-264-481.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84428-264-855.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85961-264-526.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85960-264-539.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85751-264-540.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-83123-264-481.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-76834-264-456.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72923-264-440.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80534-264-475.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64698-264-410.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50260-264-505.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82082-264-374.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73381-264-433.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49845-264-411.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80561-264-468.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73820-264-427.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82505-264-469.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50260-264-505.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79342-264-474.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77883-264-381.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86461-264-533.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-76834-264-456.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72923-264-440.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80534-264-475.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77878-264-463.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73381-264-433.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85960-264-539.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19659-264-405.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21746-264-604.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85751-264-540.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49843-264-725.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77878-264-463.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53445-264-605.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85961-264-526.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49841-264-718.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79342-264-474.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84428-264-855.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134616-264-036.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134616-264-036.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134620-264-066.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134620-264-066.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134676-264-273.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134676-264-273.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133898-264-479.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106275-264-567.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106020-264-566.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133915-264-590.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106275-264-567.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133916-264-591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133912-264-584.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106020-264-566.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133913-264-585.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106079-264-536.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133916-264-591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133913-264-585.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133915-264-590.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133898-264-479.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106035-264-644.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106035-264-644.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106081-264-636.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106081-264-636.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106079-264-536.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133912-264-584.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106240-264-651.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106240-264-651.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106388-264-859.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106388-264-859.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134615-264-033.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134615-264-033.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107487-264-596.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106812-264-527.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106067-264-575.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106067-264-575.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106823-264-532.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106823-264-532.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106824-264-538.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133895-264-439.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107488-264-632.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106824-264-538.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106239-264-633.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107487-264-596.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133895-264-439.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107488-264-632.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106812-264-527.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106239-264-633.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133810-264-198.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133810-264-198.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133758-264-091.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133750-264-073.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133767-264-114.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133752-264-084.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133839-264-272.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133767-264-114.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133844-264-278.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133784-264-166.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133835-264-266.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133753-264-085.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133836-264-267.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133758-264-091.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133790-264-172.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133790-264-172.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133752-264-084.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133835-264-266.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133773-264-144.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133850-264-285.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133867-264-337.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133844-264-278.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133805-264-191.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133839-264-272.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133850-264-285.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133805-264-191.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133878-264-390.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133773-264-144.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-124832-264-620.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133836-264-267.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133793-264-175.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133867-264-337.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133813-264-211.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133878-264-390.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133837-264-268.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-124832-264-620.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133799-264-181.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133787-264-169.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133822-264-226.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133813-264-211.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133840-264-274.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133799-264-181.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133763-264-097.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133786-264-168.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133787-264-169.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133822-264-226.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133829-264-256.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133792-264-174.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133786-264-168.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133762-264-096.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133830-264-257.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133763-264-097.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133846-264-280.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133846-264-280.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133847-264-281.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133793-264-175.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133792-264-174.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133829-264-256.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133841-264-275.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133840-264-274.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133762-264-096.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133841-264-275.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133861-264-311.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133830-264-257.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133857-264-296.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133837-264-268.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133894-264-438.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133847-264-281.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133893-264-426.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133857-264-296.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106036-264-595.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133893-264-426.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106463-264-619.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133861-264-311.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134621-264-067.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133894-264-438.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134293-264-336.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106036-264-595.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136288-264-069.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106463-264-619.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134675-264-063.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134621-264-067.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134669-264-075.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134293-264-336.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134699-264-057.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134669-264-075.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2848-264-013.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136288-264-069.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21741-264-019.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134699-264-057.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2021-264-106.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134675-264-063.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53442-264-054.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19655-264-119.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17621-264-125.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50719-264-130.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1880-264-031.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52466-264-131.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67194-264-260.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2968-264-206.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19655-264-119.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53563-264-231.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-48483-264-048.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2021-264-106.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65084-264-082.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53361-264-242.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64607-264-161.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64692-264-243.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50719-264-130.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67194-264-260.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64692-264-243.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17621-264-125.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65113-264-083.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73385-264-360.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2968-264-206.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64611-264-325.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53563-264-231.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64607-264-161.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53361-264-242.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50000-264-324.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52466-264-131.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1953-264-307.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82417-264-482.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-81087-264-354.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72775-264-383.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49974-264-319.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72781-264-442.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65042-264-255.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65334-264-512.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65094-264-249.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73262-264-430.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73262-264-430.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-81065-264-476.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77022-264-431.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72632-264-382.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77786-264-460.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72377-264-513.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72632-264-382.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-81776-264-477.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23827-264-406.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-83129-264-483.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72775-264-383.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-76290-264-455.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82417-264-482.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77022-264-431.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-83129-264-483.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23827-264-406.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73268-264-424.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2853-264-407.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53365-264-413.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77787-264-461.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78376-264-330.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49973-264-506.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79743-264-412.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85967-264-524.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2853-264-407.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50058-264-507.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77787-264-461.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77786-264-460.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-76290-264-455.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65042-264-255.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86199-264-531.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73385-264-360.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85967-264-524.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64611-264-325.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-81065-264-476.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65094-264-249.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72377-264-513.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50000-264-324.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75072-264-448.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1953-264-307.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65334-264-512.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-81087-264-354.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-81776-264-477.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75072-264-448.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72781-264-442.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78376-264-330.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21741-264-019.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53365-264-413.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-48483-264-048.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73268-264-424.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53442-264-054.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49974-264-319.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2848-264-013.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79743-264-412.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1880-264-031.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86199-264-531.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65084-264-082.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2026-264-606.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65113-264-083.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133768-264-115.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49973-264-506.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133757-264-090.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2026-264-606.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133801-264-184.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50058-264-507.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133804-264-190.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133801-264-184.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133849-264-284.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133757-264-090.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133873-264-385.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133768-264-115.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133751-264-074.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133804-264-190.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133748-264-068.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133849-264-284.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133809-264-197.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133873-264-385.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133884-264-396.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133809-264-197.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106062-264-577.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133748-264-068.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134623-264-588.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133751-264-074.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106255-264-589.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133884-264-396.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106074-264-560.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134617-264-043.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106080-264-594.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136909-264-025.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133910-264-582.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106062-264-577.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134700-264-732.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134623-264-588.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134617-264-043.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106255-264-589.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136909-264-025.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106074-264-560.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103514-264-856.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134700-264-732.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106211-264-857.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133910-264-582.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-138057-264-871.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106080-264-594.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-135570-264-886.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103514-264-856.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-135571-264-887.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106211-264-857.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-142266-264-541.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-138057-264-871.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137771-264-876.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-135570-264-886.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-135572-264-888.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-135571-264-887.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-146088-264-812.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-142266-264-541.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136307-264-865.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-135572-264-888.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133892-264-425.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137771-264-876.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133883-264-395.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-146088-264-812.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-131736-264-631.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136307-264-865.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133760-264-094.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133766-264-113.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133765-264-112.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133765-264-112.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133766-264-113.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133760-264-094.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133842-264-276.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133794-264-176.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133843-264-277.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133814-264-212.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133812-264-207.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133812-264-207.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133772-264-142.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133772-264-142.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133848-264-282.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133821-264-224.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133794-264-176.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133818-264-218.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133821-264-224.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133819-264-219.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133818-264-218.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133863-264-313.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133819-264-219.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133842-264-276.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133862-264-312.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133843-264-277.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133853-264-288.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133848-264-282.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133863-264-313.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133862-264-312.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133814-264-212.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133853-264-288.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137772-264-877.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133883-264-395.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133908-264-576.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133892-264-425.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133919-264-642.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-131736-264-631.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134668-264-061.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137772-264-877.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133876-264-388.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134668-264-061.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133882-264-394.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133908-264-576.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133808-264-195.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133919-264-642.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133872-264-349.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133808-264-195.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137770-264-875.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133872-264-349.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-142717-264-088.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133882-264-394.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134618-264-055.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133876-264-388.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-140129-264-868.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134618-264-055.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139441-264-869.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-142717-264-088.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-153253-264-548.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-140129-264-868.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-144770-264-810.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139441-264-869.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136311-264-874.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137770-264-875.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133778-264-154.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-153253-264-548.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105751-264-559.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-144770-264-810.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100543-264-5750.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133778-264-154.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77791-264-346.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136311-264-874.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65056-264-417.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100543-264-5750.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74037-264-447.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105751-264-559.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80945-264-470.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82454-264-453.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73442-264-428.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73437-264-435.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73453-264-434.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82765-264-486.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52664-264-317.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77888-264-464.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73437-264-435.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74037-264-447.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82454-264-453.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73453-264-434.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82765-264-486.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80945-264-470.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1954-264-400.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65056-264-417.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49983-264-501.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73442-264-428.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-87583-264-571.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85673-264-534.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2970-264-401.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-87583-264-571.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77888-264-464.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78122-264-365.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1848-264-034.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72780-264-370.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15497-264-016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77791-264-346.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27146-264-101.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1954-264-400.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2020-264-029.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2970-264-401.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19656-264-122.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52646-264-316.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21744-264-117.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74018-264-352.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54061-264-046.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78387-264-353.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-66978-264-052.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52664-264-317.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23823-264-028.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73243-264-371.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2850-264-123.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1897-264-601.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65053-264-058.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32219-264-600.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65112-264-070.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49983-264-501.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3048-264-017.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51000-264-720.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53560-264-235.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54061-264-046.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17622-264-200.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15497-264-016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2023-264-201.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1848-264-034.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54737-264-228.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2020-264-029.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32215-264-222.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-66978-264-052.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32216-264-229.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3048-264-017.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49977-264-322.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23823-264-028.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72805-264-334.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65112-264-070.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85673-264-534.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65053-264-058.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1897-264-601.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19656-264-122.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32219-264-600.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2850-264-123.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51000-264-720.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133917-264-592.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-135321-264-059.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133904-264-535.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134667-264-053.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106068-264-593.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133904-264-535.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-126743-264-628.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106017-264-653.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133914-264-587.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133917-264-592.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106017-264-653.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106068-264-593.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105998-264-652.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133914-264-587.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-135321-264-059.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-126743-264-628.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134667-264-053.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105998-264-652.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133759-264-093.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133775-264-146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133806-264-192.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133764-264-099.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133764-264-099.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133833-264-264.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133754-264-086.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133769-264-116.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133755-264-087.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133749-264-071.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133769-264-116.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133831-264-258.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133783-264-165.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133759-264-093.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133775-264-146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133777-264-152.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133777-264-152.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133783-264-165.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133831-264-258.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133782-264-158.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133859-264-299.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133754-264-086.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133833-264-264.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133838-264-271.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133851-264-286.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133755-264-087.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133865-264-328.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133859-264-299.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133852-264-287.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133851-264-286.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133782-264-158.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133806-264-192.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133838-264-271.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133870-264-347.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133870-264-347.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133852-264-287.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133749-264-071.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133865-264-328.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133807-264-193.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133834-264-265.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133886-264-398.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133807-264-193.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133887-264-399.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133864-264-323.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133834-264-265.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133827-264-252.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133827-264-252.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133874-264-386.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133864-264-323.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133890-264-422.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133874-264-386.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133875-264-387.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133875-264-387.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133887-264-399.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133880-264-392.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133886-264-398.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133890-264-422.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133891-264-423.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133891-264-423.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133880-264-392.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136310-264-872.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136309-264-867.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136309-264-867.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137773-264-878.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137773-264-878.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136310-264-872.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-152637-264-092.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-146155-264-217.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-146155-264-217.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-152637-264-092.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27771-45660.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133445-097-826hpcd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133445-097-826hpcd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27771-45660.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84867-916-873.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1285-090-164.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1285-090-164.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84867-916-873.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101385-097-021cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101348-097-018cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26495-090-049.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101385-097-021cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101348-097-018cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26495-090-049.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65817-090-202.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17463-090-151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17463-090-151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65817-090-202.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26551-090-088.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19489-090-055.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19489-090-055.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26551-090-088.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53557-095-158.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21570-090-008.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21570-090-008.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53557-095-158.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19486-090-024.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-477-090-006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-477-090-006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19486-090-024.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17464-090-161.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-483-090-149.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-483-090-149.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17464-090-161.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17460-090-060.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1126-090-043.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1126-090-043.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17460-090-060.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-484-090-153.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1131-090-165.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1131-090-165.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-484-090-153.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-480-090-041.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1766-090-039.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1766-090-039.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-480-090-041.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1772-090-091.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15334-090-036.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15334-090-036.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1772-090-091.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139-090-115.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-138-090-114.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-138-090-114.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139-090-115.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-663-090-098.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-661-090-059.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-661-090-059.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-354-090-052.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-354-090-052.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19490-090-058.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19490-090-058.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-663-090-098.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1107-090-005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17454-090-010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17454-090-010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1107-090-005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139861-99971.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100157-090-090.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-694-097-134.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139861-99971.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100157-090-090.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-694-097-134.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1781-095-002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102410-097-130cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102410-097-130cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1781-095-002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6978-365274.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12143-65271.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12143-65271.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6978-365274.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101376-097-022cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102411-097-143cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102293-097-001cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101376-097-022cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102411-097-143cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102293-097-001cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77227-095-5001cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77205-090-5004cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77205-090-5004cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102238-090-182cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102238-090-182cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77227-095-5001cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22442-65216.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26827-65211.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26827-65211.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22442-65216.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8055-65253.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102322-090-075cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102322-090-075cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26835-65372.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26835-65372.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8055-65253.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32870-65266.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12148-65324.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12148-65324.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32870-65266.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-16155-65385.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-380-097-130.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-380-097-130.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-16155-65385.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12139-65202.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26834-65371.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12140-65203.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12139-65202.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26834-65371.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12140-65203.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22445-65235.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20350-65230.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20350-65230.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22445-65235.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-10383-65243.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8061-65328.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8061-65328.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-10383-65243.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102323-090-151cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102381-090-202cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102381-090-202cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102323-090-151cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8058-65267.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32868-65246.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32868-65246.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8058-65267.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101384-090-088cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102434-090-055cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102434-090-055cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101384-090-088cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102438-090-203cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54076-090-198.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54076-090-198.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102438-090-203cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26559-095-005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15352-097-010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15352-097-010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26559-095-005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102263-090-058cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101357-090-043cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102320-090-059cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101393-090-052cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101393-090-052cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102263-090-058cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101357-090-043cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102265-090-098cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102265-090-098cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102320-090-059cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64727-090-190.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52618-090-191.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52618-090-191.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64727-090-190.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-374-097-001.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102757-090-090cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2719-097-022.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-374-097-001.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102757-090-090cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2719-097-022.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1146-097-146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21571-090-031.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21571-090-031.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1146-097-146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-426-095-015.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19499-095-144.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19499-095-144.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-426-095-015.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102924-090-842cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19493-090-1511.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19493-090-1511.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102924-090-842cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15343-090-905.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25749-090-174.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25749-090-174.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15343-090-905.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1128-090-051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26543-090-015.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26543-090-015.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-127-090-045.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134-090-085.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1128-090-051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-127-090-045.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134-090-085.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17479-097-026.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-672-097-005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-375-097-004.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2722-097-138.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-672-097-005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17479-097-026.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2722-097-138.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-375-097-004.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103168-090-845cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103076-090-844cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103076-090-844cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103168-090-845cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1487-097-020.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32865-65175.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1787-097-002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17459-090-0531.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32865-65175.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1487-097-020.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17459-090-0531.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1787-097-002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1294-095-149.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25751-095-143.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25751-095-143.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1294-095-149.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26548-090-0591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26496-090-0521.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26496-090-0521.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-481-090-0581.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1129-090-0981.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26548-090-0591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-481-090-0581.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1129-090-0981.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2715-097-0041.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-693-097-1331.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-693-097-1331.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2715-097-0041.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103007-090-841cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21575-090-1611.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21575-090-1611.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103007-090-841cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1110-090-0601.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15335-090-0431.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15335-090-0431.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1110-090-0601.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67287-097-036.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32059-095-1541.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32059-095-1541.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67287-097-036.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22441-65201.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-24514-65200.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-24514-65200.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22441-65201.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52668-65402.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53156-65403.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53156-65403.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52668-65402.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-30140-65310.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20349-65212.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20349-65212.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-30140-65310.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102325-095-005cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52671-65409.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52671-65409.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102325-095-005cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-18256-65275.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22451-65272.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22451-65272.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-18256-65275.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5587-65228.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-30138-65205.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-30138-65205.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5587-65228.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-28675-65219.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12141-65217.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12141-65217.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-28675-65219.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20348-65208.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-16152-65225.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5432-65209.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20348-65208.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-16152-65225.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5432-65209.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3738-65277.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-28678-65388.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-28678-65388.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20359-66303.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20359-66303.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-30142-65327.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-30142-65327.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3738-65277.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102264-090-086cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101356-090-035cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101356-090-035cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102264-090-086cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32065-097-116.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102391-090-050cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21589-097-117.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102436-090-084cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10411,7 +10411,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102391-090-050cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32065-097-116.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102436-090-084cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21589-097-117.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103922-092-023.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103920-092-016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103920-092-016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103922-092-023.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103904-092-019.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103896-092-024.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103896-092-024.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103904-092-019.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103901-092-014.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103902-092-015.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103902-092-015.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103901-092-014.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73369-69001.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73382-69000.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73382-69000.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73369-69001.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19504-097-129.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-988-030-539.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-988-030-539.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19504-097-129.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1140-095-815.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15351-097-003.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15351-097-003.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1140-095-815.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1439-097-023.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2717-097-017.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2717-097-017.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1439-097-023.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-669-095-006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-376-097-012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-376-097-012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-669-095-006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5594-66221.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5595-66222.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5595-66222.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5594-66221.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5589-65279.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-16161-66301.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12146-65302.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-16162-66302.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-16161-66301.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12146-65302.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-16162-66302.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5589-65279.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133785-264-167.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2971-264-408.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21744-264-117.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133784-264-166.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54737-264-228.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133753-264-085.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32216-264-229.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73267-264-359.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53560-264-235.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65040-264-253.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2023-264-201.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74018-264-352.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27146-264-101.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78387-264-353.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17622-264-200.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52646-264-316.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32215-264-222.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72780-264-370.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49977-264-322.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73243-264-371.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65040-264-253.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78122-264-365.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73267-264-359.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133785-264-167.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72805-264-334.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133750-264-073.aspx?origin=keyword</t>
         </is>
       </c>
     </row>

--- a/03.crawler/02.Dorman/file/2.url/crawler_2.xlsx
+++ b/03.crawler/02.Dorman/file/2.url/crawler_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1085"/>
+  <dimension ref="A1:B1087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2022-264-118.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17619-264-024.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17619-264-024.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2022-264-118.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19658-264-303.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3053-264-300.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3053-264-300.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-153595-264-863.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-153595-264-863.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19658-264-303.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2018-264-003.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64699-264-141.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26984-264-104.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2018-264-003.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64699-264-141.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26984-264-104.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101802-264-578.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49332-264-707.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49332-264-707.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49229-264-706.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49229-264-706.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101802-264-578.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73333-264-350.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106438-264-561.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106438-264-561.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73333-264-350.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133823-264-237.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49354-264-709.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49354-264-709.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133823-264-237.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-24050-45722.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53552-264-721.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53552-264-721.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-24050-45722.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2019-264-014.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133747-264-001.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27145-264-015.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-87543-264-838.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2846-264-009.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2019-264-014.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133747-264-001.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27145-264-015.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-87543-264-838.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2846-264-009.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133897-264-472.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15496-264-006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15496-264-006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19653-264-030.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19653-264-030.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79076-264-331.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79076-264-331.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133789-264-171.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133789-264-171.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133897-264-472.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25899-264-701.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-153805-264-545.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1951-264-105.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46147-264-039.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53363-264-126.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1951-264-105.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67169-264-081.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53363-264-126.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46147-264-039.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82424-264-480.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82424-264-480.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25899-264-701.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80592-264-850.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133770-264-128.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21745-264-124.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49479-264-713.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49479-264-713.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21745-264-124.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133770-264-128.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106077-264-581.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106077-264-581.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134622-264-234.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134622-264-234.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-87547-264-836.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-87547-264-836.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74046-264-730.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74046-264-730.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133911-264-583.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133911-264-583.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1896-264-018.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1896-264-018.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2847-264-010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2847-264-010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1879-264-022.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-66407-264-044.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21742-264-100.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1879-264-022.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-66407-264-044.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21742-264-100.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80618-264-851.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80618-264-851.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46157-264-041.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46157-264-041.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1852-264-129.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1852-264-129.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73897-264-443.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73897-264-443.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-152902-917-5524.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-152902-917-5524.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52030-264-723.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52030-264-723.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-83323-264-485.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-83323-264-485.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49842-264-722.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49842-264-722.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77832-265-838.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102771-264-5601.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-143647-264-5517.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-143647-264-5517.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102771-264-5601.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77832-265-838.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72740-264-342.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82066-264-378.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106574-264-624.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72740-264-342.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82066-264-378.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106574-264-624.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-98515-264-557.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2024-264-308.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53372-264-042.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80593-264-853.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49839-264-724.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53372-264-042.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2024-264-308.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-98515-264-557.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80593-264-853.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49839-264-724.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-124831-264-5097.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-124831-264-5097.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-131391-264-6005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-131391-264-6005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133780-264-156.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133802-264-185.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50992-264-140.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133780-264-156.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52682-264-318.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-81097-264-484.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133743-264-5110.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52682-264-318.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133802-264-185.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50992-264-140.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-81097-264-484.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80865-264-473.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82905-264-854.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133743-264-5110.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133779-264-155.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133779-264-155.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-76316-264-457.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82905-264-854.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80865-264-473.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-76316-264-457.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133856-264-295.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133856-264-295.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134421-264-049.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134421-264-049.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133798-264-180.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133798-264-180.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80162-264-380.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80162-264-380.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49837-264-726.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-142661-264-5065.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133740-264-5009.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49837-264-726.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133800-264-183.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72801-264-373.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27147-264-111.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133740-264-5009.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-142661-264-5065.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133800-264-183.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106026-264-558.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27147-264-111.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72801-264-373.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106026-264-558.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78434-264-332.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78434-264-332.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75640-264-361.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75640-264-361.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100096-264-5006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100096-264-5006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78477-264-465.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78477-264-465.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133854-264-293.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133803-264-189.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106492-264-528.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133854-264-293.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107189-264-698.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106492-264-528.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78120-264-364.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107189-264-698.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133803-264-189.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136979-264-880.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102928-264-5104.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78120-264-364.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-76294-265-847.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-76294-265-847.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136979-264-880.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102928-264-5104.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78782-264-459.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78782-264-459.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86283-264-529.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86283-264-529.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134331-264-216.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134331-264-216.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105159-264-5101.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105159-264-5101.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133745-264-5112.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133745-264-5112.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75639-264-358.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75639-264-358.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133811-264-199.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133811-264-199.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32217-264-500.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32217-264-500.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107188-264-5056.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85638-264-858.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-138420-264-622.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107188-264-5056.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-127963-264-5055.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-138420-264-622.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133744-264-5111.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-127963-264-5055.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104165-264-5054.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133744-264-5111.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85638-264-858.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27144-264-002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133810-264-198.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1850-264-102.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50224-264-040.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2852-264-220.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1849-264-038.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32212-264-020.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45259-264-032.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17620-264-108.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25898-264-011.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53374-264-045.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1847-264-004.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21743-264-109.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65044-264-080.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19651-264-021.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17618-264-005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65749-264-050.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65063-264-163.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3051-264-120.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46823-264-132.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49353-264-051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65325-264-062.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65179-264-072.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19652-264-027.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84547-264-136.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19654-264-110.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3052-264-121.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54535-264-133.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65058-264-079.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2969-264-304.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1851-264-103.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-47702-264-238.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15499-264-208.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65045-264-326.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-66793-264-244.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26987-264-305.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15498-264-202.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65114-264-327.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1952-264-203.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52594-264-239.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32214-264-209.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-76765-264-127.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49968-264-315.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65755-264-138.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72746-264-344.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65701-264-240.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82061-264-372.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26985-264-227.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74482-264-345.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73626-264-241.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2025-264-309.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64694-264-139.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74812-264-351.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46830-264-232.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49249-264-415.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53561-264-233.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49976-264-320.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2851-264-210.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77887-264-384.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73209-264-333.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72778-264-444.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73372-264-362.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72776-264-445.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73820-264-427.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49966-264-414.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75507-264-340.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73259-264-421.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77769-264-356.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73444-264-436.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78044-264-363.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73293-264-437.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82082-264-374.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74064-264-379.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49845-264-411.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32218-264-502.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50260-264-505.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49975-264-321.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75519-264-341.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74194-264-451.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77883-264-381.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17623-264-403.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77789-264-357.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65061-264-508.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85960-264-539.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-44153-264-503.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85751-264-540.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23826-264-402.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64698-264-410.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85364-264-520.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19659-264-405.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-83591-264-478.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72923-264-440.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-83965-264-515.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80534-264-475.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77892-264-466.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73778-264-432.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72382-264-550.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80561-264-468.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80535-264-852.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73381-264-433.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23828-264-800.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82505-264-469.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53367-264-801.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86461-264-533.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85959-264-537.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79342-264-474.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49465-264-716.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77878-264-463.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104165-264-5054.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85961-264-526.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45259-264-032.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49841-264-718.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25898-264-011.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-83123-264-481.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1847-264-004.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84428-264-855.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17618-264-005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21746-264-604.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54535-264-133.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-76834-264-456.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19652-264-027.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49843-264-725.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65325-264-062.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53445-264-605.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65063-264-163.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134615-264-033.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19654-264-110.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106824-264-538.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46823-264-132.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133895-264-439.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65044-264-080.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106067-264-575.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-76765-264-127.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106823-264-532.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64694-264-139.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107488-264-632.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1849-264-038.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106239-264-633.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50224-264-040.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106812-264-527.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65755-264-138.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107487-264-596.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46830-264-232.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19651-264-021.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65701-264-240.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32212-264-020.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26985-264-227.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65058-264-079.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53561-264-233.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1851-264-103.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73626-264-241.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53374-264-045.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2851-264-210.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17620-264-108.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-47702-264-238.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21743-264-109.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52594-264-239.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27144-264-002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77789-264-357.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1850-264-102.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26987-264-305.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2852-264-220.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77769-264-356.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3051-264-120.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73372-264-362.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84547-264-136.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65045-264-326.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15499-264-208.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75519-264-341.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49968-264-315.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78044-264-363.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32214-264-209.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65114-264-327.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3052-264-121.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2969-264-304.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65749-264-050.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75507-264-340.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65179-264-072.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73209-264-333.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1952-264-203.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53445-264-605.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-66793-264-244.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86461-264-533.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49353-264-051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82505-264-469.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15498-264-202.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21746-264-604.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72746-264-344.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49841-264-718.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74482-264-345.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49843-264-725.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17623-264-403.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80561-264-468.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73259-264-421.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84428-264-855.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73293-264-437.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85960-264-539.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-44153-264-503.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-83123-264-481.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72776-264-445.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72923-264-440.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23826-264-402.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64698-264-410.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74812-264-351.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82082-264-374.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49966-264-414.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49845-264-411.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82061-264-372.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73820-264-427.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49249-264-415.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50260-264-505.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74064-264-379.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77883-264-381.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49976-264-320.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-76834-264-456.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49975-264-321.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80534-264-475.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73444-264-436.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73778-264-432.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32218-264-502.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73381-264-433.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77887-264-384.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19659-264-405.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2025-264-309.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85751-264-540.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-83591-264-478.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77878-264-463.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85364-264-520.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85961-264-526.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85959-264-537.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79342-264-474.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77892-264-466.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134616-264-036.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72382-264-550.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134620-264-066.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65061-264-508.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134676-264-273.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2971-264-408.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133898-264-479.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72778-264-444.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106020-264-566.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74194-264-451.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106275-264-567.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-83965-264-515.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133912-264-584.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49465-264-716.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133913-264-585.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23828-264-800.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133916-264-591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53367-264-801.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133915-264-590.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80535-264-852.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106035-264-644.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134616-264-036.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106081-264-636.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134620-264-066.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106079-264-536.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134676-264-273.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106240-264-651.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133913-264-585.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106388-264-859.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106079-264-536.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134615-264-033.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106020-264-566.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107487-264-596.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106275-264-567.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106067-264-575.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133916-264-591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106823-264-532.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106035-264-644.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106824-264-538.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133915-264-590.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107488-264-632.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133912-264-584.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106239-264-633.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133898-264-479.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133895-264-439.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106240-264-651.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106812-264-527.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106081-264-636.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133810-264-198.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106388-264-859.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133758-264-091.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133799-264-181.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133767-264-114.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133762-264-096.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133839-264-272.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133763-264-097.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133844-264-278.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133786-264-168.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133835-264-266.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133787-264-169.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133796-264-178.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133830-264-257.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133836-264-267.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133822-264-226.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133790-264-172.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133840-264-274.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133752-264-084.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133841-264-275.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133773-264-144.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133829-264-256.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133867-264-337.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133846-264-280.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133805-264-191.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133847-264-281.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133826-264-251.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133837-264-268.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133817-264-215.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133861-264-311.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133850-264-285.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133813-264-211.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133878-264-390.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133893-264-426.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-124832-264-620.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133894-264-438.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133793-264-175.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133857-264-296.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133813-264-211.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106036-264-595.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133837-264-268.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106463-264-619.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133799-264-181.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134699-264-057.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133822-264-226.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134675-264-063.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133840-264-274.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136288-264-069.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133763-264-097.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134669-264-075.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133787-264-169.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2848-264-013.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133829-264-256.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1880-264-031.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133786-264-168.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21741-264-019.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133830-264-257.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65084-264-082.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133846-264-280.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65113-264-083.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133847-264-281.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2021-264-106.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133792-264-174.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53442-264-054.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133841-264-275.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53563-264-231.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133762-264-096.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-48483-264-048.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133861-264-311.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19655-264-119.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133857-264-296.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50719-264-130.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133894-264-438.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1953-264-307.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133893-264-426.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78376-264-330.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106036-264-595.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49974-264-319.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106463-264-619.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52466-264-131.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134621-264-067.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53361-264-242.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134293-264-336.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64692-264-243.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136288-264-069.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65042-264-255.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134675-264-063.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64607-264-161.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134669-264-075.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65094-264-249.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134699-264-057.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17621-264-125.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-146089-264-816.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73385-264-360.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2848-264-013.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50000-264-324.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21741-264-019.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64611-264-325.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2021-264-106.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2968-264-206.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53442-264-054.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72632-264-382.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17621-264-125.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72775-264-383.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1880-264-031.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77786-264-460.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67194-264-260.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77787-264-461.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19655-264-119.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73268-264-424.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-48483-264-048.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73262-264-430.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65084-264-082.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65334-264-512.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64607-264-161.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79743-264-412.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50719-264-130.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53365-264-413.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64692-264-243.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67194-264-260.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65113-264-083.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-81065-264-476.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2968-264-206.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72377-264-513.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53563-264-231.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75072-264-448.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53361-264-242.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-81776-264-477.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52466-264-131.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85967-264-524.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82417-264-482.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86199-264-531.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72775-264-383.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82417-264-482.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72781-264-442.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-83129-264-483.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65334-264-512.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23827-264-406.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73262-264-430.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49973-264-506.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-81065-264-476.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50058-264-507.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72632-264-382.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72781-264-442.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72377-264-513.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-81087-264-354.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-81776-264-477.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2853-264-407.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-83129-264-483.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77022-264-431.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77022-264-431.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2026-264-606.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23827-264-406.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133796-264-178.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2853-264-407.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133758-264-091.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77787-264-461.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133784-264-166.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49973-264-506.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133785-264-167.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85967-264-524.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133752-264-084.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50058-264-507.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133753-264-085.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77786-264-460.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133767-264-114.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65042-264-255.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133805-264-191.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73385-264-360.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133790-264-172.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64611-264-325.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133750-264-073.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65094-264-249.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133850-264-285.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50000-264-324.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133773-264-144.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1953-264-307.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133844-264-278.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-81087-264-354.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133826-264-251.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75072-264-448.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133817-264-215.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78376-264-330.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133867-264-337.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53365-264-413.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133878-264-390.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73268-264-424.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133839-264-272.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49974-264-319.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133835-264-266.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79743-264-412.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133836-264-267.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86199-264-531.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-124832-264-620.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2026-264-606.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133748-264-068.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133768-264-115.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133809-264-197.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133757-264-090.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133751-264-074.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133801-264-184.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133884-264-396.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133804-264-190.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134621-264-067.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133849-264-284.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134293-264-336.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133873-264-385.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136909-264-025.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133751-264-074.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134617-264-043.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133748-264-068.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133910-264-582.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133809-264-197.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106080-264-594.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133884-264-396.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134623-264-588.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106062-264-577.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106255-264-589.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134623-264-588.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106074-264-560.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106255-264-589.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134700-264-732.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106074-264-560.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103514-264-856.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106080-264-594.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106211-264-857.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133910-264-582.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-146089-264-816.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134700-264-732.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-142266-264-541.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134617-264-043.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-135572-264-888.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136909-264-025.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137771-264-876.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103514-264-856.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-153755-264-556.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106211-264-857.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-146088-264-812.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-138057-264-871.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133804-264-190.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-135570-264-886.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133849-264-284.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-135571-264-887.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133801-264-184.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-142266-264-541.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133757-264-090.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137771-264-876.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133768-264-115.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-135572-264-888.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133873-264-385.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-146088-264-812.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133772-264-142.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136307-264-865.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133848-264-282.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133892-264-425.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133812-264-207.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133883-264-395.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133862-264-312.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-131736-264-631.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133863-264-313.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133760-264-094.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133853-264-288.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133765-264-112.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133892-264-425.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133766-264-113.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133814-264-212.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133842-264-276.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133883-264-395.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133843-264-277.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133765-264-112.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133812-264-207.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133760-264-094.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133772-264-142.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133766-264-113.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133848-264-282.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-131736-264-631.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133794-264-176.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133842-264-276.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133821-264-224.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133843-264-277.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133818-264-218.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133794-264-176.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133819-264-219.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133818-264-218.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133862-264-312.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133819-264-219.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133853-264-288.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133821-264-224.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133863-264-313.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137772-264-877.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133814-264-212.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-135571-264-887.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137772-264-877.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-138057-264-871.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133908-264-576.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-135570-264-886.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133919-264-642.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133908-264-576.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134668-264-061.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133919-264-642.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133876-264-388.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134668-264-061.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133882-264-394.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-153756-264-958.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133808-264-195.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136307-264-865.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137770-264-875.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133876-264-388.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-142717-264-088.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133808-264-195.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-140129-264-868.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-142717-264-088.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139441-264-869.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-140129-264-868.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-153253-264-548.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139441-264-869.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-144770-264-810.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137770-264-875.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136311-264-874.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-153253-264-548.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133778-264-154.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-153945-264-555.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105751-264-559.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-144770-264-810.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100543-264-5750.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133778-264-154.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77791-264-346.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136311-264-874.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65056-264-417.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100543-264-5750.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74037-264-447.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105751-264-559.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80945-264-470.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1848-264-034.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73442-264-428.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65053-264-058.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73453-264-434.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23823-264-028.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52664-264-317.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2020-264-029.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73437-264-435.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15497-264-016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82454-264-453.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3048-264-017.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73357-264-429.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54061-264-046.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77641-264-458.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21744-264-117.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82765-264-486.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27146-264-101.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1954-264-400.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54737-264-228.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49983-264-501.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32216-264-229.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-87583-264-571.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19656-264-122.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2970-264-401.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-66978-264-052.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77888-264-464.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65040-264-253.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1848-264-034.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65112-264-070.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15497-264-016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32215-264-222.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27146-264-101.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2023-264-201.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2020-264-029.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17622-264-200.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19656-264-122.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2850-264-123.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21744-264-117.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49977-264-322.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54061-264-046.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53560-264-235.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-66978-264-052.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52646-264-316.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23823-264-028.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52664-264-317.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2850-264-123.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73267-264-359.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65053-264-058.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72780-264-370.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65112-264-070.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74018-264-352.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3048-264-017.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72805-264-334.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53560-264-235.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78122-264-365.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17622-264-200.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77888-264-464.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2023-264-201.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77791-264-346.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54737-264-228.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73357-264-429.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32215-264-222.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85673-264-534.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32216-264-229.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49983-264-501.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49977-264-322.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2970-264-401.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72805-264-334.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73243-264-371.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85673-264-534.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78387-264-353.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1897-264-601.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73437-264-435.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32219-264-600.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82454-264-453.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51000-264-720.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73453-264-434.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133076-097-826hp.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82765-264-486.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-135321-264-059.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51000-264-720.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134667-264-053.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1897-264-601.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106071-264-564.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77641-264-458.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106017-264-653.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106071-264-564.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133917-264-592.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133914-264-587.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106068-264-593.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-135321-264-059.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133914-264-587.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134667-264-053.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74246-264-452.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106017-264-653.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133775-264-146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133917-264-592.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133764-264-099.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106068-264-593.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133833-264-264.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74246-264-452.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133769-264-116.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133076-097-826hp.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133749-264-071.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133852-264-287.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133831-264-258.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133859-264-299.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133759-264-093.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133851-264-286.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133777-264-152.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133782-264-158.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133783-264-165.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133831-264-258.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133782-264-158.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133870-264-347.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133754-264-086.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133865-264-328.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133838-264-271.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133833-264-264.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133755-264-087.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133759-264-093.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133859-264-299.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133769-264-116.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133851-264-286.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133764-264-099.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133806-264-192.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133775-264-146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133870-264-347.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133755-264-087.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133852-264-287.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133749-264-071.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133865-264-328.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133783-264-165.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134619-264-065.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133806-264-192.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133741-264-5102.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133754-264-086.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133899-264-487.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133777-264-152.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136312-264-879.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133838-264-271.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-135569-264-885.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133741-264-5102.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-152478-264-890.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134619-264-065.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133834-264-265.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133899-264-487.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133807-264-193.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136312-264-879.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133864-264-323.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-135569-264-885.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133827-264-252.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-152478-264-890.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133874-264-386.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133864-264-323.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133890-264-422.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133827-264-252.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133875-264-387.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133834-264-265.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133887-264-399.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133890-264-422.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133886-264-398.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133891-264-423.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133891-264-423.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133887-264-399.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-132810-264-623.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133874-264-386.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-138805-264-586.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133875-264-387.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136309-264-867.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133886-264-398.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137773-264-878.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133807-264-193.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136310-264-872.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-132810-264-623.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-146155-264-217.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-138805-264-586.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-152637-264-092.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137773-264-878.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136308-264-866.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136310-264-872.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137769-264-873.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136309-264-867.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-66492-625-804.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-152637-264-092.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84966-916-880.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-146155-264-217.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-24048-45661.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137769-264-873.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2276-45655.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136308-264-866.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128462-090-946.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-66492-625-804.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133445-097-826hpcd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84966-916-880.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27771-45660.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-24048-45661.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137048-264-765.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2276-45655.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89169-916-743.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128462-090-946.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-126730-904-7450.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27771-45660.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-142292-090-854cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133445-097-826hpcd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-152794-090-854.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137048-264-765.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32048-090-040.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89169-916-743.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77228-090-5001cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-126730-904-7450.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77203-090-5003cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-152794-090-854.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77348-090-5002cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-142292-090-854cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89175-916-741.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32048-090-040.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102294-097-148cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-146049-090-948cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101395-097-829cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77228-090-5001cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102072-090-937cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77203-090-5003cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51807-095-024.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77348-090-5002cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-98634-097-8261.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102294-097-148cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101511-090-935cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89175-916-741.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101593-090-938cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101395-097-829cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-361-090-170.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51807-095-024.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17465-090-177.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-98634-097-8261.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102111-090-936cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101511-090-935cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67899-090-182.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102072-090-937cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15338-090-089.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-361-090-170.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107184-090-951.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101593-090-938cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102201-097-836cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102111-090-936cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51679-090-195.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17465-090-177.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-138726-090-999.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67899-090-182.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107486-097-826cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107184-090-951.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-129031-090-948.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15338-090-089.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32053-090-163.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102201-097-836cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1285-090-164.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51679-090-195.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84867-916-873.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-138726-090-999.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105507-264-777.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107486-097-826cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15340-090-169.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-129031-090-948.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-362-090-172.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32053-090-163.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-96492-090-214.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1285-090-164.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101348-097-018cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84867-916-873.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101385-097-021cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105507-264-777.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26495-090-049.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15340-090-169.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21576-090-162.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-362-090-172.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15341-090-171.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101348-097-018cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21572-090-038.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-96492-090-214.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17463-090-151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101385-097-021cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65817-090-202.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21576-090-162.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5433-65221.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26495-090-049.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1112-090-075.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15341-090-171.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26494-090-042.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21572-090-038.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19489-090-055.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17463-090-151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26551-090-088.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65817-090-202.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-665-090-154.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1112-090-075.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-355-090-053.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5433-65221.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-131-090-076.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-355-090-053.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21570-090-008.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26551-090-088.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53557-095-158.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-665-090-154.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53939-090-203.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26494-090-042.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1124-090-018.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19489-090-055.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-477-090-006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-131-090-076.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19486-090-024.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21570-090-008.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-483-090-149.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53939-090-203.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17464-090-161.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53557-095-158.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-356-090-066.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-477-090-006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26500-090-167.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19486-090-024.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1126-090-043.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1124-090-018.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17460-090-060.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-483-090-149.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75433-097-148.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17464-090-161.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84877-916-874.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75433-097-148.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1131-090-165.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-356-090-066.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-484-090-153.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26500-090-167.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19487-090-034.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84877-916-874.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-658-090-033.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-484-090-153.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1766-090-039.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1131-090-165.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-480-090-041.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1126-090-043.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1132-090-175.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17460-090-060.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15334-090-036.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19487-090-034.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1772-090-091.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-658-090-033.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-138-090-114.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1766-090-039.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139-090-115.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-480-090-041.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26497-090-074.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1132-090-175.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102433-090-040cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26497-090-074.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1123-090-017.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15334-090-036.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-661-090-059.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139-090-115.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-354-090-052.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-138-090-114.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19490-090-058.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1772-090-091.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-663-090-098.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102433-090-040cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102439-097-127cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1123-090-017.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17454-090-010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-354-090-052.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1107-090-005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-661-090-059.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-873-090-079.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19490-090-058.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75489-090-211.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-663-090-098.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15332-090-011.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1107-090-005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1286-090-173.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17454-090-010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1776-090-156.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102439-097-127cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100157-090-090.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-873-090-079.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139861-99971.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75489-090-211.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-694-097-134.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15332-090-011.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102209-097-147cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1776-090-156.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1142-097-016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1286-090-173.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102410-097-130cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-694-097-134.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1781-095-002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100157-090-090.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73904-095-160.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139861-99971.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101750-097-827cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102410-097-130cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106033-090-5014cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102209-097-147cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101377-097-118cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1142-097-016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1108-090-0401.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73904-095-160.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-675-097-1191.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1781-095-002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100804-097-832cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101750-097-827cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102242-090-932cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106033-090-5014cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102327-097-133cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101377-097-118cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51962-095-025.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1108-090-0401.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73493-69015.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-675-097-1191.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101378-097-828cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100804-097-832cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104982-090-5007cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102242-090-932cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-673-097-021.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51962-095-025.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21587-097-018.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102327-097-133cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102208-097-115cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73493-69015.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7251,7 +7251,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106029-090-5010cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101378-097-828cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133964-264-098.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104982-090-5007cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26507-097-119.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-673-097-021.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102245-097-830cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21587-097-018.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101375-097-010cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102208-097-115cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102295-097-831cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106029-090-5010cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102382-090-933cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133964-264-098.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-871-090-070.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26507-097-119.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1145-097-135.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101375-097-010cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52196-65396.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102295-097-831cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52325-095-019.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102245-097-830cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12143-65271.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102382-090-933cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6978-365274.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-871-090-070.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-135490-097-8431.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1145-097-135.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102411-097-143cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52196-65396.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101376-097-022cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6978-365274.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102293-097-001cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-135490-097-8431.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67916-65407.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12143-65271.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-30139-65263.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102411-097-143cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-82770-030-548.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101376-097-022cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15353-097-0211.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102293-097-001cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84880-916-879.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67916-65407.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-28673-65214.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-82770-030-548.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77205-090-5004cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-30139-65263.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102238-090-182cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15353-097-0211.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77227-095-5001cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84880-916-879.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54207-65413.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-28673-65214.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19503-097-127.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102238-090-182cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77204-095-5003cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77205-090-5004cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-77206-095-5002cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52325-095-019.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102244-095-158cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77227-095-5001cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12149-65384.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54207-65413.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134614-921-132.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19503-097-127.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101135-090-214cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77204-095-5003cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-28674-65215.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102244-095-158cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102239-090-195cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-77206-095-5002cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54798-65414.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101135-090-214cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1768-090-054.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12149-65384.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102289-090-038cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134614-921-132.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64352-66549.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-28674-65215.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26827-65211.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102239-090-195cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22442-65216.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54798-65414.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22449-65264.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1768-090-054.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-18262-65450.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102289-090-038cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102322-090-075cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64352-66549.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26835-65372.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22442-65216.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8055-65253.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26827-65211.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12148-65324.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8055-65253.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32870-65266.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-18262-65450.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32058-095-142.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26835-65372.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22443-65226.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102322-090-075cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19497-095-010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22449-65264.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-380-097-130.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32058-095-142.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-16155-65385.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12148-65324.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26834-65371.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32870-65266.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12139-65202.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19497-095-010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12140-65203.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22443-65226.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8057-65265.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-380-097-130.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-10380-65223.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12139-65202.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-670-095-141.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12140-65203.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20350-65230.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26834-65371.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3735-65220.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-16155-65385.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5434-65236.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8057-65265.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22445-65235.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-670-095-141.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-370-095-156.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-10380-65223.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-76258-65426.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-370-095-156.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32867-65232.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20350-65230.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-10382-65233.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22445-65235.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8061-65328.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5434-65236.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-10383-65243.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3735-65220.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102319-090-039cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-76258-65426.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102406-090-175cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32867-65232.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102437-090-099cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-10382-65233.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-28676-65231.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8061-65328.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102324-090-172cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-10383-65243.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-28677-65378.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102324-090-172cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8059-65273.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102319-090-039cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8021,7 +8021,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102215-090-053cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102406-090-175cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8056-65256.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-28676-65231.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101358-090-049cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102437-090-099cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22446-65245.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-28677-65378.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-24515-65314.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8056-65256.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102318-090-005cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8059-65273.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102229-090-153cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102215-090-053cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102381-090-202cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22446-65245.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102323-090-151cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-24515-65314.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54542-090-183.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101358-090-049cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26843-66451.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102323-090-151cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32868-65246.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102381-090-202cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8058-65267.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102318-090-005cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102432-090-011cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102229-090-153cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72761-65430.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54542-090-183.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26504-095-017.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26843-66451.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101365-090-042cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8058-65267.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102405-090-054cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32868-65246.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102434-090-055cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72761-65430.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101384-090-088cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102432-090-011cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101355-090-034cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26504-095-017.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73584-904-256.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101365-090-042cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102404-090-008cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101384-090-088cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54076-090-198.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102405-090-054cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102438-090-203cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102434-090-055cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-98642-097-826.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54076-090-198.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102199-095-002cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102404-090-008cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101354-090-024cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101355-090-034cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15352-097-010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73584-904-256.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21590-097-133.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102199-095-002cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26559-095-005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102438-090-203cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101357-090-043cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-98642-097-826.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101393-090-052cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15352-097-010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102263-090-058cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21590-097-133.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102265-090-098cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26559-095-005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102320-090-059cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101354-090-024cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102241-090-211cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102710-090-033cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102408-095-025cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102290-090-066cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102710-090-033cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102263-090-058cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102290-090-066cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102320-090-059cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52207-090-201.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101393-090-052cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103913-092-020.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101357-090-043cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54272-090-192.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102265-090-098cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101373-090-076cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102241-090-211cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102237-090-149cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102408-095-025cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52618-090-191.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52207-090-201.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-64727-090-190.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103913-092-020.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52678-090-197.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54272-090-192.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68205-095-159.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52678-090-197.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-496-097-115.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101373-090-076cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25745-090-082.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102237-090-149cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-377-097-0251.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52618-090-191.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1109-090-057.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-64727-090-190.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102757-090-090cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1109-090-057.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-374-097-001.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102757-090-090cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2719-097-022.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-496-097-115.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-353-090-030.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68205-095-159.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72264-65427.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25745-090-082.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102321-090-060cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-377-097-0251.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34799-090-1721.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2719-097-022.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-81060-030-502.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-374-097-001.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-35047-097-1461.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-353-090-030.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102236-090-036cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72264-65427.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102266-090-114cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102321-090-060cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21571-090-031.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-35047-097-1461.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1146-097-146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34799-090-1721.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19499-095-144.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-81060-030-502.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-426-095-015.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102266-090-114cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26493-090-0381.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102236-090-036cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102216-090-079cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1146-097-146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103008-090-843cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21571-090-031.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17474-095-147.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-426-095-015.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26830-65274.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19499-095-144.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-126288-921-131.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102216-090-079cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-24511-65116.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26493-090-0381.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-357-090-0751.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103008-090-843cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32045-090-016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17474-095-147.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19485-090-020.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-126288-921-131.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32050-090-087.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26830-65274.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19493-090-1511.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32045-090-016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102924-090-842cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-24511-65116.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21573-090-081.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32050-090-087.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25755-097-025.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-357-090-0751.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19488-090-050.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19485-090-020.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-358-090-084.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19493-090-1511.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34627-090-1711.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21573-090-081.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102830-090-847cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25755-097-025.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1770-090-080.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19488-090-050.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-125-090-035.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-358-090-084.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26550-090-086.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34627-090-1711.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25746-090-105.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1770-090-080.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25749-090-174.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-125-090-035.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15343-090-905.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26550-090-086.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1283-090-021.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102830-090-847cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26543-090-015.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25746-090-105.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-127-090-045.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25749-090-174.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1128-090-051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15343-090-905.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134-090-085.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102924-090-842cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2722-097-138.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-695-097-139.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-375-097-004.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2722-097-138.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-695-097-139.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-375-097-004.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73445-69010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1283-090-021.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-869-090-0491.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26543-090-015.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-868-090-0331.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1128-090-051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-659-090-0391.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-127-090-045.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54474-095-026.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134-090-085.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73490-69014.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73445-69010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26546-090-032.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-869-090-0491.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103076-090-844cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54474-095-026.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103168-090-845cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26546-090-032.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32865-65175.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73490-69014.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17459-090-0531.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103076-090-844cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1782-095-016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103168-090-845cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1487-097-020.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-868-090-0331.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1787-097-002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-659-090-0391.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34631-090-1751.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32865-65175.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17473-095-014.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17459-090-0531.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26558-095-003.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1782-095-016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1138-095-145.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1487-097-020.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32063-097-035.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1787-097-002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21569-090-0051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26492-090-0361.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26492-090-0361.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73448-69011.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73448-69011.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34631-090-1751.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136-090-0911.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17473-095-014.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-140-090-1151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32063-097-035.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73449-69013.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1138-095-145.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32871-65356.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26558-095-003.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74014-69016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21569-090-0051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32052-090-1561.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136-090-0911.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102909-090-846cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-140-090-1151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-132-090-0791.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73449-69013.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73510-69012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74014-69016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1775-090-1531.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32871-65356.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25751-095-143.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102909-090-846cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1294-095-149.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-132-090-0791.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-493-097-019.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73510-69012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1125-090-0341.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25751-095-143.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2125-366227.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-493-097-019.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19502-097-1151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1294-095-149.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-359-090-0881.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32052-090-1561.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101366-097-117cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1775-090-1531.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26496-090-0521.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-359-090-0881.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-481-090-0581.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1125-090-0341.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26548-090-0591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19502-097-1151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1129-090-0981.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2125-366227.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5584-65147.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101366-097-117cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-693-097-1331.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2715-097-0041.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2715-097-0041.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-693-097-1331.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102243-095-142cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26548-090-0591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21575-090-1611.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26496-090-0521.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103007-090-841cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1129-090-0981.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100164-090-0901.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-481-090-0581.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15335-090-0431.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5584-65147.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1110-090-0601.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21575-090-1611.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8060-65325.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102243-095-142cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32059-095-1541.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103007-090-841cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67287-097-036.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100164-090-0901.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9651,7 +9651,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3737-65270.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1110-090-0601.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73451-69002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15335-090-0431.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101349-097-116cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8060-65325.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102207-095-010cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32059-095-1541.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12145-65301.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67287-097-036.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-30141-65311.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73451-69002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53151-65404.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3737-65270.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12147-65304.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101349-097-116cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102326-095-141cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102207-095-010cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102200-095-156cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12145-65301.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26836-65394.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-30141-65311.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-24514-65200.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12147-65304.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22441-65201.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53151-65404.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54077-65410.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102326-095-141cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53156-65403.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102200-095-156cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52668-65402.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26836-65394.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102409-097-129cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-24514-65200.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102398-097-128cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22441-65201.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5590-65292.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54077-65410.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102931-090-198cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52668-65402.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102392-090-183cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53156-65403.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-127033-090-947.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102409-097-129cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102292-095-159cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102398-097-128cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52208-65399.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5590-65292.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20349-65212.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102931-090-198cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-30140-65310.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102392-090-183cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-28672-65206.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-127033-090-947.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103921-092-018.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102292-095-159cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3734-65213.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52208-65399.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22444-65229.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-30140-65310.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20353-65269.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20349-65212.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52671-65409.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-28672-65206.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102325-095-005cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3734-65213.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8062-65330.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22444-65229.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-18257-65276.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20353-65269.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22451-65272.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103921-092-018.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-18256-65275.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52671-65409.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-28671-65204.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102325-095-005cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-30138-65205.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5587-65228.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5587-65228.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-28671-65204.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-16151-65109.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-30138-65205.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102934-090-197cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22451-65272.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5586-65207.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8062-65330.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12141-65217.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-18257-65276.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-28675-65219.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-18256-65275.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102096-090-080cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-16151-65109.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101359-090-179cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102934-090-197cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-10384-65281.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5586-65207.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8290-65290.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102096-090-080cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-16152-65225.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12141-65217.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20348-65208.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-28675-65219.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5432-65209.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101359-090-179cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10181,7 +10181,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101374-090-081cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-10384-65281.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102795-090-082cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8290-65290.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26829-65240.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-16152-65225.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101364-090-016cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5432-65209.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22450-65268.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20348-65208.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-28678-65388.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101374-090-081cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20359-66303.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102795-090-082cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26831-65278.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26829-65240.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-30142-65327.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22450-65268.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3738-65277.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-30142-65327.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20352-65254.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3738-65277.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102291-090-089cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26831-65278.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102498-095-026cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-28678-65388.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102380-090-087cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20359-66303.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10321,7 +10321,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101372-090-031cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20352-65254.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128356-904-423.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101364-090-016cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103890-090-032cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102291-090-089cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-101356-090-035cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102498-095-026cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102264-090-086cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102380-090-087cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102262-090-020cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101372-090-031cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-427-095-140.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128356-904-423.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102391-090-050cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103890-090-032cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102436-090-084cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102264-090-086cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10411,7 +10411,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32065-097-116.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-101356-090-035cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21589-097-117.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102262-090-020cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103920-092-016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-427-095-140.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103903-092-017.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102391-090-050cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103905-092-022.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102436-090-084cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103922-092-023.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32065-097-116.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103896-092-024.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21589-097-117.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103906-092-025.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103903-092-017.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103904-092-019.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103920-092-016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103902-092-015.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103905-092-022.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103914-092-021.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103922-092-023.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103901-092-014.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25750-095-1421.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25750-095-1421.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103902-092-015.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103886-090-045cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103901-092-014.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102616-090-015cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103914-092-021.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22452-65280.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103906-092-025.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73382-69000.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103904-092-019.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73369-69001.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103896-092-024.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26560-095-0101.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102616-090-015cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52665-65400.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103886-090-045cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15348-095-1411.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22452-65280.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17475-095-1561.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73369-69001.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3733-65102.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73382-69000.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1483-095-0151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26560-095-0101.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34618-095-1471.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52665-65400.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10661,7 +10661,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26832-65282.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15348-095-1411.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-988-030-539.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17475-095-1561.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-692-097-128.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3733-65102.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19504-097-129.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1483-095-0151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15336-090-0501.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34618-095-1471.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15337-090-0801.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26832-65282.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73894-090-208.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-988-030-539.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26503-095-0141.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19504-097-129.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10741,7 +10741,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26547-090-0351.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-692-097-128.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133-090-0821.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15336-090-0501.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1136-095-1431.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15337-090-0801.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26491-090-0311.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73894-090-208.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15346-095-004.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133-090-0821.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1440-097-027.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26503-095-0141.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26557-095-001.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26547-090-0351.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15351-097-003.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1136-095-1431.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1140-095-815.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26491-090-0311.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2717-097-017.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1440-097-027.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1439-097-023.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15346-095-004.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10851,7 +10851,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19498-095-012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26557-095-001.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-376-097-012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1140-095-815.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-669-095-006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15351-097-003.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102063-090-051cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2717-097-017.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3739-65306.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1439-097-023.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102267-095-140cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19498-095-012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25756-097-0271.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-376-097-012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53656-65408.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-669-095-006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5595-66222.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102063-090-051cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5594-66221.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3739-65306.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-16161-66301.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102267-095-140cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-16162-66302.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25756-097-0271.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5436-65303.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53656-65408.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12146-65302.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5594-66221.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-5589-65279.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5595-66222.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102240-090-208cd.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12146-65302.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21583-095-1401.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5436-65303.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73447-69003.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-5589-65279.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128336-008-660.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-16161-66301.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-127385-008-659.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-16162-66302.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73439-65416.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102240-090-208cd.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1292-095-0011.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21583-095-1401.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26508-097-825.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73447-69003.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3804-700-251.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128336-008-660.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72583-963-232.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-127385-008-659.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8379-700-365.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73439-65416.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7165-45680.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1292-095-0011.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100954-963-232d.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26508-097-825.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52322-66003.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3804-700-251.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6194-963-058.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72583-963-232.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100758-963-058d.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8379-700-365.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2971-264-408.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7165-45680.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133784-264-166.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100954-963-232d.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133753-264-085.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52322-66003.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73267-264-359.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6194-963-058.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65040-264-253.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100758-963-058d.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74018-264-352.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133793-264-175.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78387-264-353.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-133792-264-174.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52646-264-316.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106062-264-577.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72780-264-370.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74037-264-447.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73243-264-371.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-87583-264-571.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78122-264-365.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65056-264-417.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133785-264-167.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1954-264-400.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,27 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-133750-264-073.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73442-264-428.aspx?origin=keyword</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/p-80945-264-470.aspx?origin=keyword</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/p-32219-264-600.aspx?origin=keyword</t>
         </is>
       </c>
     </row>

--- a/03.crawler/02.Dorman/file/2.url/crawler_2.xlsx
+++ b/03.crawler/02.Dorman/file/2.url/crawler_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29480" windowHeight="14040"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,31 +38,31 @@
     <t>https://www.dormanproducts.com/p-133461-264-6005g.aspx?origin=keyword</t>
   </si>
   <si>
-    <t>https://www.dormanproducts.com/p-152639-266-003.aspx?origin=keyword</t>
+    <t>https://www.dormanproducts.com/p-153992-266-017.aspx?origin=keyword</t>
+  </si>
+  <si>
+    <t>https://www.dormanproducts.com/p-154093-266-007.aspx?origin=keyword</t>
   </si>
   <si>
     <t>https://www.dormanproducts.com/p-152746-266-004.aspx?origin=keyword</t>
   </si>
   <si>
-    <t>https://www.dormanproducts.com/p-152638-264-864.aspx?origin=keyword</t>
+    <t>https://www.dormanproducts.com/p-154053-266-015.aspx?origin=keyword</t>
+  </si>
+  <si>
+    <t>https://www.dormanproducts.com/p-152639-266-003.aspx?origin=keyword</t>
   </si>
   <si>
     <t>https://www.dormanproducts.com/p-15500-264-301.aspx?origin=keyword</t>
   </si>
   <si>
-    <t>https://www.dormanproducts.com/p-32211-264-012.aspx?origin=keyword</t>
+    <t>https://www.dormanproducts.com/p-152638-264-864.aspx?origin=keyword</t>
   </si>
   <si>
     <t>https://www.dormanproducts.com/p-17619-264-024.aspx?origin=keyword</t>
   </si>
   <si>
-    <t>https://www.dormanproducts.com/p-2022-264-118.aspx?origin=keyword</t>
-  </si>
-  <si>
-    <t>https://www.dormanproducts.com/p-3053-264-300.aspx?origin=keyword</t>
-  </si>
-  <si>
-    <t>https://www.dormanproducts.com/p-153595-264-863.aspx?origin=keyword</t>
+    <t>https://www.dormanproducts.com/p-32211-264-012.aspx?origin=keyword</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD1087"/>
+      <selection activeCell="A12" sqref="$A12:$XFD1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
